--- a/results/mod2.galtan_corrupt.corrupt.eff.COMB.xlsx
+++ b/results/mod2.galtan_corrupt.corrupt.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.153712726113205</v>
+        <v>-0.153713015440688</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0490669244201242</v>
+        <v>0.0490665506580492</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.249882130808797</v>
+        <v>-0.249881687576075</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0575433214176126</v>
+        <v>-0.0575443433053019</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.1327157332519</v>
+        <v>-3.13274549319623</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00173197094557306</v>
+        <v>0.0017317953599651</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.121271438115017</v>
+        <v>0.121273476789882</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0510937895177881</v>
+        <v>0.0510933775285097</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0211294508264823</v>
+        <v>0.0211322969854949</v>
       </c>
       <c r="F3" t="n">
-        <v>0.221413425403552</v>
+        <v>0.221414656594269</v>
       </c>
       <c r="G3" t="n">
-        <v>2.37350643316047</v>
+        <v>2.37356547278974</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0176200861034553</v>
+        <v>0.017617269360917</v>
       </c>
     </row>
   </sheetData>
